--- a/WorkbookTemplates/04_Metadata.xlsx
+++ b/WorkbookTemplates/04_Metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdelAbdallah_UOU_PC\01PhD\CI-Water\Data_Loader_WaM-DaM\DesignsDocs\Templates_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Desktop\WorkbookTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="846">
   <si>
     <t>SourceName</t>
   </si>
@@ -802,12 +802,1791 @@
   <si>
     <t>SourceCitation</t>
   </si>
+  <si>
+    <t>Idaho Department of Water Resources</t>
+  </si>
+  <si>
+    <t>http://idwr.idaho.gov/</t>
+  </si>
+  <si>
+    <t>The Idaho Department of Water Resources' director is appointed by the governor, and the agency is divided into bureaus, sections, or teams organized around specific areas of responsibility.</t>
+  </si>
+  <si>
+    <t>Liz Cresto</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources 322. E. Front Street Boise, Idaho 83720-0098</t>
+  </si>
+  <si>
+    <t>liz.cresto@idwr.idaho.gov</t>
+  </si>
+  <si>
+    <t>208-287-4833</t>
+  </si>
+  <si>
+    <t>Hydrology Section Supervisor</t>
+  </si>
+  <si>
+    <t>Idaho Water Rights Accounting</t>
+  </si>
+  <si>
+    <t>Idaho-WRA</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/Help/UsersManual.pdf</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources1</t>
+  </si>
+  <si>
+    <t>Idaho-WRA1</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10086450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liz provided a spreadsheet of discharge time series data for the all the sites in the Bear River/Idao portion </t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources2</t>
+  </si>
+  <si>
+    <t>Idaho-WRA2</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079490</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources3</t>
+  </si>
+  <si>
+    <t>Idaho-WRA3</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079995</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources4</t>
+  </si>
+  <si>
+    <t>Idaho-WRA4</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10080195</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources5</t>
+  </si>
+  <si>
+    <t>Idaho-WRA5</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10086000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources6</t>
+  </si>
+  <si>
+    <t>Idaho-WRA6</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10055500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources7</t>
+  </si>
+  <si>
+    <t>Idaho-WRA7</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources8</t>
+  </si>
+  <si>
+    <t>Idaho-WRA8</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10117800</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources9</t>
+  </si>
+  <si>
+    <t>Idaho-WRA9</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources10</t>
+  </si>
+  <si>
+    <t>Idaho-WRA10</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10080385</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources11</t>
+  </si>
+  <si>
+    <t>Idaho-WRA11</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10083505</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources12</t>
+  </si>
+  <si>
+    <t>Idaho-WRA12</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10080355</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources13</t>
+  </si>
+  <si>
+    <t>Idaho-WRA13</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098819</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources14</t>
+  </si>
+  <si>
+    <t>Idaho-WRA14</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044080</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources15</t>
+  </si>
+  <si>
+    <t>Idaho-WRA15</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10046500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources16</t>
+  </si>
+  <si>
+    <t>Idaho-WRA16</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10046000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources17</t>
+  </si>
+  <si>
+    <t>Idaho-WRA17</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10126000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources18</t>
+  </si>
+  <si>
+    <t>Idaho-WRA18</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10068500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources19</t>
+  </si>
+  <si>
+    <t>Idaho-WRA19</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10086500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources20</t>
+  </si>
+  <si>
+    <t>Idaho-WRA20</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10039500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources21</t>
+  </si>
+  <si>
+    <t>Idaho-WRA21</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10075000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources22</t>
+  </si>
+  <si>
+    <t>Idaho-WRA22</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10092700</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources23</t>
+  </si>
+  <si>
+    <t>Idaho-WRA23</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10059500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources24</t>
+  </si>
+  <si>
+    <t>Idaho-WRA24</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10076000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources25</t>
+  </si>
+  <si>
+    <t>Idaho-WRA25</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079500</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources26</t>
+  </si>
+  <si>
+    <t>Idaho-WRA26</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10080000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources27</t>
+  </si>
+  <si>
+    <t>Idaho-WRA27</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118000</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources28</t>
+  </si>
+  <si>
+    <t>Idaho-WRA28</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044060</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources29</t>
+  </si>
+  <si>
+    <t>Idaho-WRA29</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044200</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources30</t>
+  </si>
+  <si>
+    <t>Idaho-WRA30</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044070</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources31</t>
+  </si>
+  <si>
+    <t>Idaho-WRA31</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044450</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources32</t>
+  </si>
+  <si>
+    <t>Idaho-WRA32</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044800</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources33</t>
+  </si>
+  <si>
+    <t>Idaho-WRA33</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10044700</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources34</t>
+  </si>
+  <si>
+    <t>Idaho-WRA34</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10045800</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources35</t>
+  </si>
+  <si>
+    <t>Idaho-WRA35</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098809</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources36</t>
+  </si>
+  <si>
+    <t>Idaho-WRA36</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098813</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources37</t>
+  </si>
+  <si>
+    <t>Idaho-WRA37</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098817</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources38</t>
+  </si>
+  <si>
+    <t>Idaho-WRA38</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098807</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources39</t>
+  </si>
+  <si>
+    <t>Idaho-WRA39</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098821</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources40</t>
+  </si>
+  <si>
+    <t>Idaho-WRA40</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098808</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources41</t>
+  </si>
+  <si>
+    <t>Idaho-WRA41</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098810</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources42</t>
+  </si>
+  <si>
+    <t>Idaho-WRA42</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098811</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources43</t>
+  </si>
+  <si>
+    <t>Idaho-WRA43</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098825</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources44</t>
+  </si>
+  <si>
+    <t>Idaho-WRA44</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098812</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources45</t>
+  </si>
+  <si>
+    <t>Idaho-WRA45</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098815</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources46</t>
+  </si>
+  <si>
+    <t>Idaho-WRA46</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098814</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources47</t>
+  </si>
+  <si>
+    <t>Idaho-WRA47</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098829</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources48</t>
+  </si>
+  <si>
+    <t>Idaho-WRA48</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098816</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources49</t>
+  </si>
+  <si>
+    <t>Idaho-WRA49</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098818</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources50</t>
+  </si>
+  <si>
+    <t>Idaho-WRA50</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098879</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources51</t>
+  </si>
+  <si>
+    <t>Idaho-WRA51</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098820</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources52</t>
+  </si>
+  <si>
+    <t>Idaho-WRA52</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098823</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources53</t>
+  </si>
+  <si>
+    <t>Idaho-WRA53</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098822</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources54</t>
+  </si>
+  <si>
+    <t>Idaho-WRA54</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098883</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources55</t>
+  </si>
+  <si>
+    <t>Idaho-WRA55</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098824</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources56</t>
+  </si>
+  <si>
+    <t>Idaho-WRA56</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098827</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources57</t>
+  </si>
+  <si>
+    <t>Idaho-WRA57</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098887</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources58</t>
+  </si>
+  <si>
+    <t>Idaho-WRA58</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098826</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources59</t>
+  </si>
+  <si>
+    <t>Idaho-WRA59</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118511</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources60</t>
+  </si>
+  <si>
+    <t>Idaho-WRA60</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098828</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources61</t>
+  </si>
+  <si>
+    <t>Idaho-WRA61</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098877</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources62</t>
+  </si>
+  <si>
+    <t>Idaho-WRA62</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098876</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources63</t>
+  </si>
+  <si>
+    <t>Idaho-WRA63</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098881</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources64</t>
+  </si>
+  <si>
+    <t>Idaho-WRA64</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098878</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources65</t>
+  </si>
+  <si>
+    <t>Idaho-WRA65</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098880</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources66</t>
+  </si>
+  <si>
+    <t>Idaho-WRA66</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098885</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources67</t>
+  </si>
+  <si>
+    <t>Idaho-WRA67</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098882</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources68</t>
+  </si>
+  <si>
+    <t>Idaho-WRA68</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098884</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources69</t>
+  </si>
+  <si>
+    <t>Idaho-WRA69</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10072550</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources70</t>
+  </si>
+  <si>
+    <t>Idaho-WRA70</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098886</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources71</t>
+  </si>
+  <si>
+    <t>Idaho-WRA71</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118509</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources72</t>
+  </si>
+  <si>
+    <t>Idaho-WRA72</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098888</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources73</t>
+  </si>
+  <si>
+    <t>Idaho-WRA73</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118513</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources74</t>
+  </si>
+  <si>
+    <t>Idaho-WRA74</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118510</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources75</t>
+  </si>
+  <si>
+    <t>Idaho-WRA75</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118512</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources76</t>
+  </si>
+  <si>
+    <t>Idaho-WRA76</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118516</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources77</t>
+  </si>
+  <si>
+    <t>Idaho-WRA77</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118517</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources78</t>
+  </si>
+  <si>
+    <t>Idaho-WRA78</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118514</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources79</t>
+  </si>
+  <si>
+    <t>Idaho-WRA79</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067870</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources80</t>
+  </si>
+  <si>
+    <t>Idaho-WRA80</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118518</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources81</t>
+  </si>
+  <si>
+    <t>Idaho-WRA81</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067874</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources82</t>
+  </si>
+  <si>
+    <t>Idaho-WRA82</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10086950</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources83</t>
+  </si>
+  <si>
+    <t>Idaho-WRA83</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10068205</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources84</t>
+  </si>
+  <si>
+    <t>Idaho-WRA84</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10068210</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources85</t>
+  </si>
+  <si>
+    <t>Idaho-WRA85</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089880</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources86</t>
+  </si>
+  <si>
+    <t>Idaho-WRA86</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10082550</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources87</t>
+  </si>
+  <si>
+    <t>Idaho-WRA87</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10072554</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources88</t>
+  </si>
+  <si>
+    <t>Idaho-WRA88</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10081650</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources89</t>
+  </si>
+  <si>
+    <t>Idaho-WRA89</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089820</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources90</t>
+  </si>
+  <si>
+    <t>Idaho-WRA90</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089970</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources91</t>
+  </si>
+  <si>
+    <t>Idaho-WRA91</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098854</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources92</t>
+  </si>
+  <si>
+    <t>Idaho-WRA92</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089955</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources93</t>
+  </si>
+  <si>
+    <t>Idaho-WRA93</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098858</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources94</t>
+  </si>
+  <si>
+    <t>Idaho-WRA94</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098856</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources95</t>
+  </si>
+  <si>
+    <t>Idaho-WRA95</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098862</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources96</t>
+  </si>
+  <si>
+    <t>Idaho-WRA96</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098860</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources97</t>
+  </si>
+  <si>
+    <t>Idaho-WRA97</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10086975</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources98</t>
+  </si>
+  <si>
+    <t>Idaho-WRA98</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098866</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources99</t>
+  </si>
+  <si>
+    <t>Idaho-WRA99</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098864</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources100</t>
+  </si>
+  <si>
+    <t>Idaho-WRA100</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089850</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources101</t>
+  </si>
+  <si>
+    <t>Idaho-WRA101</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089950</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources102</t>
+  </si>
+  <si>
+    <t>Idaho-WRA102</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098874</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources103</t>
+  </si>
+  <si>
+    <t>Idaho-WRA103</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098872</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources104</t>
+  </si>
+  <si>
+    <t>Idaho-WRA104</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098890</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources105</t>
+  </si>
+  <si>
+    <t>Idaho-WRA105</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10089960</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources106</t>
+  </si>
+  <si>
+    <t>Idaho-WRA106</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10090250</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources107</t>
+  </si>
+  <si>
+    <t>Idaho-WRA107</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098892</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources108</t>
+  </si>
+  <si>
+    <t>Idaho-WRA108</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098894</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources109</t>
+  </si>
+  <si>
+    <t>Idaho-WRA109</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098896</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources110</t>
+  </si>
+  <si>
+    <t>Idaho-WRA110</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098898</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources111</t>
+  </si>
+  <si>
+    <t>Idaho-WRA111</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098853</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources112</t>
+  </si>
+  <si>
+    <t>Idaho-WRA112</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098900</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources113</t>
+  </si>
+  <si>
+    <t>Idaho-WRA113</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043110</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources114</t>
+  </si>
+  <si>
+    <t>Idaho-WRA114</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098855</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources115</t>
+  </si>
+  <si>
+    <t>Idaho-WRA115</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098857</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources116</t>
+  </si>
+  <si>
+    <t>Idaho-WRA116</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043160</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources117</t>
+  </si>
+  <si>
+    <t>Idaho-WRA117</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098859</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources118</t>
+  </si>
+  <si>
+    <t>Idaho-WRA118</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098861</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources119</t>
+  </si>
+  <si>
+    <t>Idaho-WRA119</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043140</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources120</t>
+  </si>
+  <si>
+    <t>Idaho-WRA120</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098863</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources121</t>
+  </si>
+  <si>
+    <t>Idaho-WRA121</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098865</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources122</t>
+  </si>
+  <si>
+    <t>Idaho-WRA122</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067834</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources123</t>
+  </si>
+  <si>
+    <t>Idaho-WRA123</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098871</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources124</t>
+  </si>
+  <si>
+    <t>Idaho-WRA124</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098873</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources125</t>
+  </si>
+  <si>
+    <t>Idaho-WRA125</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067725</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources126</t>
+  </si>
+  <si>
+    <t>Idaho-WRA126</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098875</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources127</t>
+  </si>
+  <si>
+    <t>Idaho-WRA127</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098889</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources128</t>
+  </si>
+  <si>
+    <t>Idaho-WRA128</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067855</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources129</t>
+  </si>
+  <si>
+    <t>Idaho-WRA129</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098893</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources130</t>
+  </si>
+  <si>
+    <t>Idaho-WRA130</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098891</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources131</t>
+  </si>
+  <si>
+    <t>Idaho-WRA131</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079800</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources132</t>
+  </si>
+  <si>
+    <t>Idaho-WRA132</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10117001</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources133</t>
+  </si>
+  <si>
+    <t>Idaho-WRA133</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10078905</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources134</t>
+  </si>
+  <si>
+    <t>Idaho-WRA134</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098895</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources135</t>
+  </si>
+  <si>
+    <t>Idaho-WRA135</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098899</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources136</t>
+  </si>
+  <si>
+    <t>Idaho-WRA136</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043105</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources137</t>
+  </si>
+  <si>
+    <t>Idaho-WRA137</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043120</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources138</t>
+  </si>
+  <si>
+    <t>Idaho-WRA138</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10079600</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources139</t>
+  </si>
+  <si>
+    <t>Idaho-WRA139</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091460</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources140</t>
+  </si>
+  <si>
+    <t>Idaho-WRA140</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043150</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources141</t>
+  </si>
+  <si>
+    <t>Idaho-WRA141</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091120</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources142</t>
+  </si>
+  <si>
+    <t>Idaho-WRA142</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10043180</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources143</t>
+  </si>
+  <si>
+    <t>Idaho-WRA143</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091563</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources144</t>
+  </si>
+  <si>
+    <t>Idaho-WRA144</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10047305</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources145</t>
+  </si>
+  <si>
+    <t>Idaho-WRA145</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098801</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources146</t>
+  </si>
+  <si>
+    <t>Idaho-WRA146</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10067705</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources147</t>
+  </si>
+  <si>
+    <t>Idaho-WRA147</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098805</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources148</t>
+  </si>
+  <si>
+    <t>Idaho-WRA148</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098832</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources149</t>
+  </si>
+  <si>
+    <t>Idaho-WRA149</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098803</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources150</t>
+  </si>
+  <si>
+    <t>Idaho-WRA150</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098830</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources151</t>
+  </si>
+  <si>
+    <t>Idaho-WRA151</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098836</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources152</t>
+  </si>
+  <si>
+    <t>Idaho-WRA152</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098834</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources153</t>
+  </si>
+  <si>
+    <t>Idaho-WRA153</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098840</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources154</t>
+  </si>
+  <si>
+    <t>Idaho-WRA154</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098838</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources155</t>
+  </si>
+  <si>
+    <t>Idaho-WRA155</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098844</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources156</t>
+  </si>
+  <si>
+    <t>Idaho-WRA156</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098842</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources157</t>
+  </si>
+  <si>
+    <t>Idaho-WRA157</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10080105</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources158</t>
+  </si>
+  <si>
+    <t>Idaho-WRA158</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098848</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources159</t>
+  </si>
+  <si>
+    <t>Idaho-WRA159</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098846</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources160</t>
+  </si>
+  <si>
+    <t>Idaho-WRA160</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091455</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources161</t>
+  </si>
+  <si>
+    <t>Idaho-WRA161</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098852</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources162</t>
+  </si>
+  <si>
+    <t>Idaho-WRA162</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098850</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources163</t>
+  </si>
+  <si>
+    <t>Idaho-WRA163</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091110</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources164</t>
+  </si>
+  <si>
+    <t>Idaho-WRA164</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118502</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources165</t>
+  </si>
+  <si>
+    <t>Idaho-WRA165</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091503</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources166</t>
+  </si>
+  <si>
+    <t>Idaho-WRA166</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118504</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources167</t>
+  </si>
+  <si>
+    <t>Idaho-WRA167</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118506</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources168</t>
+  </si>
+  <si>
+    <t>Idaho-WRA168</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10091495</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources169</t>
+  </si>
+  <si>
+    <t>Idaho-WRA169</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118508</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources170</t>
+  </si>
+  <si>
+    <t>Idaho-WRA170</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10092755</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources171</t>
+  </si>
+  <si>
+    <t>Idaho-WRA171</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10092650</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources172</t>
+  </si>
+  <si>
+    <t>Idaho-WRA172</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098804</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources173</t>
+  </si>
+  <si>
+    <t>Idaho-WRA173</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098831</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources174</t>
+  </si>
+  <si>
+    <t>Idaho-WRA174</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098802</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources175</t>
+  </si>
+  <si>
+    <t>Idaho-WRA175</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098835</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources176</t>
+  </si>
+  <si>
+    <t>Idaho-WRA176</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098833</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources177</t>
+  </si>
+  <si>
+    <t>Idaho-WRA177</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098839</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources178</t>
+  </si>
+  <si>
+    <t>Idaho-WRA178</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098837</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources179</t>
+  </si>
+  <si>
+    <t>Idaho-WRA179</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098843</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources180</t>
+  </si>
+  <si>
+    <t>Idaho-WRA180</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098841</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources181</t>
+  </si>
+  <si>
+    <t>Idaho-WRA181</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098847</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources182</t>
+  </si>
+  <si>
+    <t>Idaho-WRA182</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098845</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources183</t>
+  </si>
+  <si>
+    <t>Idaho-WRA183</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098851</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources184</t>
+  </si>
+  <si>
+    <t>Idaho-WRA184</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10098849</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources185</t>
+  </si>
+  <si>
+    <t>Idaho-WRA185</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10117002</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources186</t>
+  </si>
+  <si>
+    <t>Idaho-WRA186</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118503</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources187</t>
+  </si>
+  <si>
+    <t>Idaho-WRA187</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118507</t>
+  </si>
+  <si>
+    <t>Idaho Department of Water Resources188</t>
+  </si>
+  <si>
+    <t>Idaho-WRA188</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/WRA_Report.aspx?datatype=ALC&amp;calendartype=I&amp;req=10118505</t>
+  </si>
+  <si>
+    <t>Idaho-WRA189</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/</t>
+  </si>
+  <si>
+    <t>Idaho-WRA190</t>
+  </si>
+  <si>
+    <t>Liz shared the shapefile through email</t>
+  </si>
+  <si>
+    <t>Wyoming water development commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Agency </t>
+  </si>
+  <si>
+    <t>http://wwdc.state.wy.us/</t>
+  </si>
+  <si>
+    <t>The Wyoming Water Development Program was established in 1975 to promote the optimal development of the state's human, industrial, mineral, agricultural, water and recreational resources. The program provides, through a commission, procedures and policies for the planning, selection, financing, construction, acquisition, and operation of projects. This can include projects for the conservation, storage, distribution and use of water, necessary in the public interest to develop and preserve Wyoming's water and related land resources.</t>
+  </si>
+  <si>
+    <t>Idaho National Laboratory</t>
+  </si>
+  <si>
+    <t>https://www.inl.gov/</t>
+  </si>
+  <si>
+    <t>INL is the nation’s leading center for nuclear energy research and development. INL works in each of the strategic goal areas of DOE: energy, national security, science and environment.</t>
+  </si>
+  <si>
+    <t>Gerald Sehlke</t>
+  </si>
+  <si>
+    <t> Integrated Environmental Analysis Department, Idaho National Engineering and Environmental Laboratory, P.O. Box 1625, Idaho Falls, ID 83415 </t>
+  </si>
+  <si>
+    <t>sehlkeg@gmail.com</t>
+  </si>
+  <si>
+    <t>System Dynamics Modeling of Transboundary Systems: The Bear River Basin Model</t>
+  </si>
+  <si>
+    <t>System Dynamics </t>
+  </si>
+  <si>
+    <t>Sehlke, G., Jacobson, J., 2005. System Dynamics Modeling of Transboundary Systems: The Bear River Basin Model. Ground Water 43(5) 722-730.</t>
+  </si>
+  <si>
+    <t>wwdc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -832,13 +2611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
@@ -853,6 +2625,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -962,12 +2752,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -984,17 +2774,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1029,16 +2816,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1059,6 +2846,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1340,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1352,7 +3148,7 @@
     <col min="2" max="2" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="22"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,7 +3165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +3264,46 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>838</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1479,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1494,7 +3329,7 @@
     <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="22"/>
+    <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,7 +3355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1544,20 +3379,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1565,39 +3400,39 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1605,20 +3440,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -1626,31 +3461,31 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1659,7 +3494,7 @@
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1667,12 +3502,49 @@
       <c r="A10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
         <v>98</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>839</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="6" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +3559,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1698,52 +3570,52 @@
     <col min="4" max="4" width="14.875" style="6" customWidth="1"/>
     <col min="5" max="6" width="18.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="22"/>
+    <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1763,7 +3635,7 @@
       <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1771,10 +3643,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>99</v>
       </c>
       <c r="D4"/>
@@ -1784,12 +3656,12 @@
       <c r="F4" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1801,7 +3673,7 @@
       <c r="F5" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1816,7 +3688,7 @@
       <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1831,15 +3703,44 @@
       <c r="F7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="35"/>
+      <c r="A8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9"/>
+      <c r="A9" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>839</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1850,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A196" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1864,46 +3765,46 @@
     <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="22"/>
+    <col min="7" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1935,7 +3836,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1985,16 +3886,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2018,13 +3919,2696 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>686</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>710</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>731</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>737</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C180" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>809</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C199" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="F200" s="33" t="s">
+        <v>839</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C22" r:id="rId2"/>
+    <hyperlink ref="C28" r:id="rId3"/>
+    <hyperlink ref="C32" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2032,27 +6616,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="20" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="22"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2074,690 +6658,690 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="36" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2782,10 +7366,10 @@
     <col min="2" max="2" width="17.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="33"/>
+    <col min="5" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2799,7 +7383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="32" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -2814,162 +7398,162 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>125</v>
       </c>
     </row>

--- a/WorkbookTemplates/04_Metadata.xlsx
+++ b/WorkbookTemplates/04_Metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Desktop\WorkbookTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Documents\GitHub\test2\WorkbookTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="8" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="AttributeCategory" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Extract" localSheetId="4">ObjectCategory!$A$1:$D$1</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">ObjectCategory!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" iterateDelta="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="845">
   <si>
     <t>SourceName</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>ParentCategoryName</t>
   </si>
   <si>
     <t>CategoryDefinition</t>
@@ -2752,7 +2749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2786,13 +2783,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
@@ -3148,7 +3139,7 @@
     <col min="2" max="2" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="5" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,13 +3150,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -3181,128 +3172,128 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="37" t="s">
         <v>834</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>837</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +3320,7 @@
     <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="21"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3346,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -3355,7 +3346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -3379,172 +3370,172 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="C4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="C6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="F6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>840</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>841</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -3570,176 +3561,176 @@
     <col min="4" max="4" width="14.875" style="6" customWidth="1"/>
     <col min="5" max="6" width="18.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="21"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>99</v>
+      <c r="A4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="14"/>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D7"/>
       <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="F8" s="33" t="s">
-        <v>96</v>
+      <c r="D8" s="32"/>
+      <c r="F8" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>844</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>839</v>
+        <v>103</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -3765,2838 +3756,2838 @@
     <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="21"/>
+    <col min="7" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="33" t="s">
-        <v>48</v>
+      <c r="F4" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="E10" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>270</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>273</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>276</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>279</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>282</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>285</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>288</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>288</v>
+      <c r="C18" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>293</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>296</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>299</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>302</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>305</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>308</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>311</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>314</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>317</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>320</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>323</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>326</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>329</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>332</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>335</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>344</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>347</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>350</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>353</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>356</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>359</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>362</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>365</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C44" s="37" t="s">
-        <v>368</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="C45" s="37" t="s">
-        <v>371</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="37" t="s">
-        <v>374</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="37" t="s">
-        <v>377</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>380</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>383</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C50" s="37" t="s">
-        <v>386</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="C51" s="37" t="s">
-        <v>389</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C52" s="37" t="s">
-        <v>392</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C53" s="37" t="s">
-        <v>395</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="37" t="s">
-        <v>398</v>
-      </c>
       <c r="F54" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="C55" s="37" t="s">
-        <v>401</v>
-      </c>
       <c r="F55" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>404</v>
-      </c>
       <c r="F56" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="C57" s="37" t="s">
-        <v>407</v>
-      </c>
       <c r="F57" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C58" s="37" t="s">
-        <v>410</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="C59" s="37" t="s">
-        <v>413</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>416</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>419</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>422</v>
-      </c>
       <c r="F62" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>425</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>428</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C65" s="37" t="s">
-        <v>431</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="C66" s="37" t="s">
-        <v>434</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="C67" s="37" t="s">
-        <v>437</v>
-      </c>
       <c r="F67" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="C68" s="37" t="s">
-        <v>440</v>
-      </c>
       <c r="F68" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="C69" s="37" t="s">
-        <v>443</v>
-      </c>
       <c r="F69" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>446</v>
-      </c>
       <c r="F70" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="C71" s="37" t="s">
-        <v>449</v>
-      </c>
       <c r="F71" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>452</v>
-      </c>
       <c r="F72" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="37" t="s">
-        <v>455</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="C74" s="37" t="s">
-        <v>458</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="C75" s="37" t="s">
-        <v>461</v>
-      </c>
       <c r="F75" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>464</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="C77" s="37" t="s">
-        <v>467</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="C78" s="37" t="s">
-        <v>470</v>
-      </c>
       <c r="F78" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="C79" s="37" t="s">
-        <v>473</v>
-      </c>
       <c r="F79" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="C80" s="37" t="s">
-        <v>476</v>
-      </c>
       <c r="F80" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="C81" s="37" t="s">
-        <v>479</v>
-      </c>
       <c r="F81" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="C82" s="37" t="s">
-        <v>482</v>
-      </c>
       <c r="F82" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="C83" s="37" t="s">
-        <v>485</v>
-      </c>
       <c r="F83" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="C84" s="37" t="s">
-        <v>488</v>
-      </c>
       <c r="F84" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="35" t="s">
         <v>490</v>
       </c>
-      <c r="C85" s="37" t="s">
-        <v>491</v>
-      </c>
       <c r="F85" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="C86" s="37" t="s">
-        <v>494</v>
-      </c>
       <c r="F86" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="C87" s="37" t="s">
-        <v>497</v>
-      </c>
       <c r="F87" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="C88" s="37" t="s">
-        <v>500</v>
-      </c>
       <c r="F88" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="C89" s="37" t="s">
-        <v>503</v>
-      </c>
       <c r="F89" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="C90" s="37" t="s">
-        <v>506</v>
-      </c>
       <c r="F90" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C91" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="C91" s="37" t="s">
-        <v>509</v>
-      </c>
       <c r="F91" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="C92" s="37" t="s">
-        <v>512</v>
-      </c>
       <c r="F92" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C93" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="C93" s="37" t="s">
-        <v>515</v>
-      </c>
       <c r="F93" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="C94" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="37" t="s">
-        <v>518</v>
-      </c>
       <c r="F94" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="C95" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="C95" s="37" t="s">
-        <v>521</v>
-      </c>
       <c r="F95" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="C96" s="37" t="s">
-        <v>524</v>
-      </c>
       <c r="F96" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="C97" s="37" t="s">
-        <v>527</v>
-      </c>
       <c r="F97" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="C98" s="37" t="s">
-        <v>530</v>
-      </c>
       <c r="F98" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="37" t="s">
-        <v>533</v>
-      </c>
       <c r="F99" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C100" s="37" t="s">
-        <v>536</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="C101" s="37" t="s">
-        <v>539</v>
-      </c>
       <c r="F101" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="C102" s="37" t="s">
-        <v>542</v>
-      </c>
       <c r="F102" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C103" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>545</v>
-      </c>
       <c r="F103" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="C104" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="C104" s="37" t="s">
-        <v>548</v>
-      </c>
       <c r="F104" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="C105" s="37" t="s">
-        <v>551</v>
-      </c>
       <c r="F105" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="C106" s="37" t="s">
-        <v>554</v>
-      </c>
       <c r="F106" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="C107" s="37" t="s">
-        <v>557</v>
-      </c>
       <c r="F107" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="C108" s="37" t="s">
-        <v>560</v>
-      </c>
       <c r="F108" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="C109" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>563</v>
-      </c>
       <c r="F109" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="C110" s="37" t="s">
-        <v>566</v>
-      </c>
       <c r="F110" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="C111" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="C111" s="37" t="s">
-        <v>569</v>
-      </c>
       <c r="F111" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="C112" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="C112" s="37" t="s">
-        <v>572</v>
-      </c>
       <c r="F112" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" s="35" t="s">
         <v>574</v>
       </c>
-      <c r="C113" s="37" t="s">
-        <v>575</v>
-      </c>
       <c r="F113" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="C114" s="37" t="s">
-        <v>578</v>
-      </c>
       <c r="F114" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C115" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="C115" s="37" t="s">
-        <v>581</v>
-      </c>
       <c r="F115" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="C116" s="37" t="s">
-        <v>584</v>
-      </c>
       <c r="F116" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" s="35" t="s">
         <v>586</v>
       </c>
-      <c r="C117" s="37" t="s">
-        <v>587</v>
-      </c>
       <c r="F117" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="C118" s="37" t="s">
-        <v>590</v>
-      </c>
       <c r="F118" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="C119" s="37" t="s">
-        <v>593</v>
-      </c>
       <c r="F119" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="C120" s="37" t="s">
-        <v>596</v>
-      </c>
       <c r="F120" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="C121" s="37" t="s">
-        <v>599</v>
-      </c>
       <c r="F121" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="C122" s="37" t="s">
-        <v>602</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="C123" s="37" t="s">
-        <v>605</v>
-      </c>
       <c r="F123" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="C124" s="37" t="s">
-        <v>608</v>
-      </c>
       <c r="F124" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="C125" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="C125" s="37" t="s">
-        <v>611</v>
-      </c>
       <c r="F125" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="C126" s="37" t="s">
-        <v>614</v>
-      </c>
       <c r="F126" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="C127" s="37" t="s">
-        <v>617</v>
-      </c>
       <c r="F127" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C128" s="37" t="s">
-        <v>620</v>
-      </c>
       <c r="F128" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="C129" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="C129" s="37" t="s">
-        <v>623</v>
-      </c>
       <c r="F129" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="C130" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="C130" s="37" t="s">
-        <v>626</v>
-      </c>
       <c r="F130" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="C131" s="37" t="s">
-        <v>629</v>
-      </c>
       <c r="F131" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="C132" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="C132" s="37" t="s">
-        <v>632</v>
-      </c>
       <c r="F132" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="C133" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="C133" s="37" t="s">
-        <v>635</v>
-      </c>
       <c r="F133" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="C134" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="C134" s="37" t="s">
-        <v>638</v>
-      </c>
       <c r="F134" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="C135" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="C135" s="37" t="s">
-        <v>641</v>
-      </c>
       <c r="F135" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="C136" s="37" t="s">
-        <v>644</v>
-      </c>
       <c r="F136" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="C137" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="C137" s="37" t="s">
-        <v>647</v>
-      </c>
       <c r="F137" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="C138" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="C138" s="37" t="s">
-        <v>650</v>
-      </c>
       <c r="F138" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="C139" s="37" t="s">
-        <v>653</v>
-      </c>
       <c r="F139" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="C140" s="37" t="s">
-        <v>656</v>
-      </c>
       <c r="F140" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="C141" s="37" t="s">
-        <v>659</v>
-      </c>
       <c r="F141" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="C142" s="37" t="s">
-        <v>662</v>
-      </c>
       <c r="F142" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="C143" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="C143" s="37" t="s">
-        <v>665</v>
-      </c>
       <c r="F143" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="C144" s="37" t="s">
-        <v>668</v>
-      </c>
       <c r="F144" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" s="35" t="s">
         <v>670</v>
       </c>
-      <c r="C145" s="37" t="s">
-        <v>671</v>
-      </c>
       <c r="F145" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="C146" s="37" t="s">
-        <v>674</v>
-      </c>
       <c r="F146" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="C147" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="C147" s="37" t="s">
-        <v>677</v>
-      </c>
       <c r="F147" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="C148" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="C148" s="37" t="s">
-        <v>680</v>
-      </c>
       <c r="F148" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="C149" s="37" t="s">
-        <v>683</v>
-      </c>
       <c r="F149" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="C150" s="35" t="s">
         <v>685</v>
       </c>
-      <c r="C150" s="37" t="s">
-        <v>686</v>
-      </c>
       <c r="F150" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="C151" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="C151" s="37" t="s">
-        <v>689</v>
-      </c>
       <c r="F151" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="C152" s="37" t="s">
-        <v>692</v>
-      </c>
       <c r="F152" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="C153" s="37" t="s">
-        <v>695</v>
-      </c>
       <c r="F153" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="C154" s="37" t="s">
-        <v>698</v>
-      </c>
       <c r="F154" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="35" t="s">
         <v>700</v>
       </c>
-      <c r="C155" s="37" t="s">
-        <v>701</v>
-      </c>
       <c r="F155" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="C156" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="C156" s="37" t="s">
-        <v>704</v>
-      </c>
       <c r="F156" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="C157" s="37" t="s">
-        <v>707</v>
-      </c>
       <c r="F157" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="C158" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="C158" s="37" t="s">
-        <v>710</v>
-      </c>
       <c r="F158" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="C159" s="37" t="s">
-        <v>713</v>
-      </c>
       <c r="F159" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="C160" s="37" t="s">
-        <v>716</v>
-      </c>
       <c r="F160" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="C161" s="35" t="s">
         <v>718</v>
       </c>
-      <c r="C161" s="37" t="s">
-        <v>719</v>
-      </c>
       <c r="F161" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="35" t="s">
         <v>721</v>
       </c>
-      <c r="C162" s="37" t="s">
-        <v>722</v>
-      </c>
       <c r="F162" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="35" t="s">
         <v>724</v>
       </c>
-      <c r="C163" s="37" t="s">
-        <v>725</v>
-      </c>
       <c r="F163" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="C164" s="37" t="s">
-        <v>728</v>
-      </c>
       <c r="F164" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="C165" s="35" t="s">
         <v>730</v>
       </c>
-      <c r="C165" s="37" t="s">
-        <v>731</v>
-      </c>
       <c r="F165" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="C166" s="35" t="s">
         <v>733</v>
       </c>
-      <c r="C166" s="37" t="s">
-        <v>734</v>
-      </c>
       <c r="F166" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="C167" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="C167" s="37" t="s">
-        <v>737</v>
-      </c>
       <c r="F167" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="C168" s="37" t="s">
-        <v>740</v>
-      </c>
       <c r="F168" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="35" t="s">
         <v>742</v>
       </c>
-      <c r="C169" s="37" t="s">
-        <v>743</v>
-      </c>
       <c r="F169" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="C170" s="37" t="s">
-        <v>746</v>
-      </c>
       <c r="F170" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="35" t="s">
         <v>748</v>
       </c>
-      <c r="C171" s="37" t="s">
-        <v>749</v>
-      </c>
       <c r="F171" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="C172" s="37" t="s">
-        <v>752</v>
-      </c>
       <c r="F172" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C173" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="C173" s="37" t="s">
-        <v>755</v>
-      </c>
       <c r="F173" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="C174" s="37" t="s">
-        <v>758</v>
-      </c>
       <c r="F174" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="C175" s="35" t="s">
         <v>760</v>
       </c>
-      <c r="C175" s="37" t="s">
-        <v>761</v>
-      </c>
       <c r="F175" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="C176" s="35" t="s">
         <v>763</v>
       </c>
-      <c r="C176" s="37" t="s">
-        <v>764</v>
-      </c>
       <c r="F176" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="C177" s="35" t="s">
         <v>766</v>
       </c>
-      <c r="C177" s="37" t="s">
-        <v>767</v>
-      </c>
       <c r="F177" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="C178" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="C178" s="37" t="s">
-        <v>770</v>
-      </c>
       <c r="F178" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="C179" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="C179" s="37" t="s">
-        <v>773</v>
-      </c>
       <c r="F179" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="C180" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="C180" s="37" t="s">
-        <v>776</v>
-      </c>
       <c r="F180" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="C181" s="35" t="s">
         <v>778</v>
       </c>
-      <c r="C181" s="37" t="s">
-        <v>779</v>
-      </c>
       <c r="F181" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="35" t="s">
         <v>781</v>
       </c>
-      <c r="C182" s="37" t="s">
-        <v>782</v>
-      </c>
       <c r="F182" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="C183" s="35" t="s">
         <v>784</v>
       </c>
-      <c r="C183" s="37" t="s">
-        <v>785</v>
-      </c>
       <c r="F183" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="35" t="s">
         <v>787</v>
       </c>
-      <c r="C184" s="37" t="s">
-        <v>788</v>
-      </c>
       <c r="F184" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="35" t="s">
         <v>790</v>
       </c>
-      <c r="C185" s="37" t="s">
-        <v>791</v>
-      </c>
       <c r="F185" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="C186" s="37" t="s">
-        <v>794</v>
-      </c>
       <c r="F186" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="C187" s="37" t="s">
-        <v>797</v>
-      </c>
       <c r="F187" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="35" t="s">
         <v>799</v>
       </c>
-      <c r="C188" s="37" t="s">
-        <v>800</v>
-      </c>
       <c r="F188" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="35" t="s">
         <v>802</v>
       </c>
-      <c r="C189" s="37" t="s">
-        <v>803</v>
-      </c>
       <c r="F189" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="35" t="s">
         <v>805</v>
       </c>
-      <c r="C190" s="37" t="s">
-        <v>806</v>
-      </c>
       <c r="F190" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="C191" s="37" t="s">
-        <v>809</v>
-      </c>
       <c r="F191" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="C192" s="35" t="s">
         <v>811</v>
       </c>
-      <c r="C192" s="37" t="s">
-        <v>812</v>
-      </c>
       <c r="F192" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="C193" s="37" t="s">
-        <v>815</v>
-      </c>
       <c r="F193" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="C194" s="37" t="s">
-        <v>818</v>
-      </c>
       <c r="F194" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="C195" s="37" t="s">
-        <v>821</v>
-      </c>
       <c r="F195" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="35" t="s">
         <v>823</v>
       </c>
-      <c r="C196" s="37" t="s">
-        <v>824</v>
-      </c>
       <c r="F196" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="35" t="s">
         <v>826</v>
       </c>
-      <c r="C197" s="37" t="s">
-        <v>827</v>
-      </c>
       <c r="F197" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>829</v>
-      </c>
       <c r="F198" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C199" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="E199" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="C199" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>831</v>
-      </c>
       <c r="F199" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="D200" s="34" t="s">
         <v>844</v>
       </c>
-      <c r="F200" s="33" t="s">
-        <v>839</v>
+      <c r="D200" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="F200" s="31" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -6614,36 +6605,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="19.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -6653,700 +6640,691 @@
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="B4" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C7" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="C13" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="C14" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="C15" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C16" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="C18" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="C19" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="C20" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="C21" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C22" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="C23" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="C24" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="C26" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="C27" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="C30" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="C31" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="C32" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="C33" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="C35" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="C36" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="B37" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="C37" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="C38" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="C39" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="C40" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="C41" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="B42" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="C42" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="B43" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="C43" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="C44" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="C45" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="C46" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="C47" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="C48" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="C49" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="C50" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="C51" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="C52" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="B53" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="C53" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="C54" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="B55" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="C55" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="C56" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="C57" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="C58" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="C59" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="C60" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="B61" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="C61" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="C62" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="C63" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="C64" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>246</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7354,10 +7332,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7365,25 +7343,21 @@
     <col min="1" max="1" width="21.875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="4" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -7393,168 +7367,165 @@
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
